--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_17_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1212082.28002407</v>
+        <v>-1214641.550591626</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673426</v>
+        <v>603248.4937673431</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>27.43115618114792</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>100.5497866259775</v>
+        <v>410.9662774206981</v>
       </c>
       <c r="H2" t="n">
-        <v>295.0640301736142</v>
+        <v>295.0640301736143</v>
       </c>
       <c r="I2" t="n">
-        <v>43.29451177962352</v>
+        <v>43.29451177962358</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.2029851842622</v>
+        <v>110.2029851842623</v>
       </c>
       <c r="T2" t="n">
         <v>204.1129955007334</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,10 +753,10 @@
         <v>135.0233064626824</v>
       </c>
       <c r="H3" t="n">
-        <v>89.82709352349995</v>
+        <v>89.82709352349997</v>
       </c>
       <c r="I3" t="n">
-        <v>9.512185486736328</v>
+        <v>9.512185486736371</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>97.14245771889397</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0457926480648</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9326943004822</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.95340549104682</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,28 +862,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>89.8307234716369</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>190.11729872947</v>
       </c>
       <c r="T4" t="n">
-        <v>72.2176742469283</v>
+        <v>219.6343371202345</v>
       </c>
       <c r="U4" t="n">
         <v>286.2129282631967</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -896,19 +896,19 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>206.7521768102492</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>332.8023417046107</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -953,13 +953,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247721</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1060,10 +1060,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>47.1902001202442</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,16 +1099,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,7 +1117,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>105.2095437457466</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1145,7 +1145,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>10.92172565345345</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
         <v>294.6077643873205</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>205.2347568737156</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.794425514577</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1306,7 +1306,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,13 +1339,13 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>42.42206642987902</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1354,10 +1354,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>47.85182542773886</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1418,13 +1418,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881276</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,10 +1528,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>50.06209150957585</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,13 +1573,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>29.6738200803744</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695557</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701339</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1701,7 +1701,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1768,19 +1768,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,10 +1810,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>43.7384661432523</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>241.0762245119975</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -1853,13 +1853,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417105</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444134</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -2002,22 +2002,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176148</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>177.8809453463088</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2129,13 +2129,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2242,22 +2242,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,10 +2284,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
@@ -2299,7 +2299,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>142.9017229193763</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2321,7 +2321,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
         <v>381.9303700722618</v>
@@ -2330,7 +2330,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2488,10 +2488,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428134</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0.825382616191547</v>
+        <v>83.06560892428156</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428135</v>
       </c>
       <c r="I31" t="n">
-        <v>9.146142788179617</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3193,7 +3193,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545304</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3430,7 +3430,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3442,7 +3442,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652581</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808197</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3518,7 +3518,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3664,7 +3664,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261719</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
@@ -3679,7 +3679,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1252.821356357769</v>
+        <v>1218.99017156376</v>
       </c>
       <c r="C2" t="n">
-        <v>1252.821356357769</v>
+        <v>850.0276546233479</v>
       </c>
       <c r="D2" t="n">
-        <v>894.555657751019</v>
+        <v>822.3194160565321</v>
       </c>
       <c r="E2" t="n">
-        <v>508.7674051527747</v>
+        <v>822.3194160565321</v>
       </c>
       <c r="F2" t="n">
-        <v>508.7674051527746</v>
+        <v>822.3194160565321</v>
       </c>
       <c r="G2" t="n">
-        <v>407.2019641164329</v>
+        <v>407.201964116433</v>
       </c>
       <c r="H2" t="n">
         <v>109.1574891935902</v>
       </c>
       <c r="I2" t="n">
-        <v>65.42565911316241</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J2" t="n">
         <v>250.5613272725632</v>
       </c>
       <c r="K2" t="n">
-        <v>578.7702206183953</v>
+        <v>578.7702206183949</v>
       </c>
       <c r="L2" t="n">
         <v>1022.844136887446</v>
       </c>
       <c r="M2" t="n">
-        <v>1548.631370064183</v>
+        <v>1548.631370064182</v>
       </c>
       <c r="N2" t="n">
         <v>2087.540198746181</v>
       </c>
       <c r="O2" t="n">
-        <v>2583.081262767918</v>
+        <v>2583.081262767916</v>
       </c>
       <c r="P2" t="n">
-        <v>2971.513095303808</v>
+        <v>2971.513095303806</v>
       </c>
       <c r="Q2" t="n">
-        <v>3215.036478301005</v>
+        <v>3215.036478301004</v>
       </c>
       <c r="R2" t="n">
-        <v>3271.28295565812</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S2" t="n">
-        <v>3159.966809007351</v>
+        <v>3159.966809007349</v>
       </c>
       <c r="T2" t="n">
-        <v>2953.792066077317</v>
+        <v>2953.792066077315</v>
       </c>
       <c r="U2" t="n">
-        <v>2700.257989208346</v>
+        <v>2700.257989208344</v>
       </c>
       <c r="V2" t="n">
-        <v>2369.195101864775</v>
+        <v>2369.195101864773</v>
       </c>
       <c r="W2" t="n">
-        <v>2016.426446594661</v>
+        <v>2369.195101864773</v>
       </c>
       <c r="X2" t="n">
-        <v>1642.960688333581</v>
+        <v>1995.729343603693</v>
       </c>
       <c r="Y2" t="n">
-        <v>1252.821356357769</v>
+        <v>1605.590011627881</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3149953501908</v>
+        <v>1647.371745645391</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8619660690638</v>
+        <v>1472.918716364264</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9275564078125</v>
+        <v>1323.984306703013</v>
       </c>
       <c r="E3" t="n">
-        <v>448.690101402357</v>
+        <v>1164.746851697558</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1555434292419</v>
+        <v>1018.212293724442</v>
       </c>
       <c r="G3" t="n">
-        <v>165.7683651841082</v>
+        <v>881.8251154793087</v>
       </c>
       <c r="H3" t="n">
-        <v>75.03392728158295</v>
+        <v>791.0906775767835</v>
       </c>
       <c r="I3" t="n">
-        <v>65.42565911316241</v>
+        <v>781.482409408363</v>
       </c>
       <c r="J3" t="n">
-        <v>156.8733478056107</v>
+        <v>872.9300981008112</v>
       </c>
       <c r="K3" t="n">
-        <v>391.3268380794824</v>
+        <v>1135.057607831236</v>
       </c>
       <c r="L3" t="n">
-        <v>752.9010302656283</v>
+        <v>1496.631800017381</v>
       </c>
       <c r="M3" t="n">
-        <v>1194.197926366259</v>
+        <v>1937.928696118012</v>
       </c>
       <c r="N3" t="n">
-        <v>1661.583283102524</v>
+        <v>2405.314052854276</v>
       </c>
       <c r="O3" t="n">
-        <v>2066.929778176385</v>
+        <v>2810.660547928137</v>
       </c>
       <c r="P3" t="n">
-        <v>2372.923010208141</v>
+        <v>3116.653779959892</v>
       </c>
       <c r="Q3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="R3" t="n">
-        <v>2555.226205362918</v>
+        <v>3271.282955658119</v>
       </c>
       <c r="S3" t="n">
-        <v>2425.341079122718</v>
+        <v>3141.397829417919</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.601027250337</v>
+        <v>2948.657777545538</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.53159630069</v>
+        <v>2720.58834659589</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.379488068947</v>
+        <v>2485.436238364148</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.142131340745</v>
+        <v>2231.198881635946</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.290631135213</v>
+        <v>2023.347381430413</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.530332370259</v>
+        <v>1815.58708266546</v>
       </c>
     </row>
     <row r="4">
@@ -4462,40 +4462,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>845.4881127377265</v>
+        <v>409.3951801803441</v>
       </c>
       <c r="C4" t="n">
-        <v>676.5519298098196</v>
+        <v>311.2714855147947</v>
       </c>
       <c r="D4" t="n">
-        <v>526.4352903974839</v>
+        <v>311.2714855147947</v>
       </c>
       <c r="E4" t="n">
-        <v>526.4352903974839</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="F4" t="n">
-        <v>379.5453428995736</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="G4" t="n">
-        <v>211.8223200227404</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="H4" t="n">
-        <v>65.42565911316241</v>
+        <v>163.3583919324016</v>
       </c>
       <c r="I4" t="n">
-        <v>65.42565911316241</v>
+        <v>65.42565911316237</v>
       </c>
       <c r="J4" t="n">
         <v>109.1495242182616</v>
       </c>
       <c r="K4" t="n">
-        <v>310.8381027401524</v>
+        <v>310.8381027401522</v>
       </c>
       <c r="L4" t="n">
-        <v>624.4564789039126</v>
+        <v>624.4564789039123</v>
       </c>
       <c r="M4" t="n">
-        <v>965.5122071220442</v>
+        <v>965.5122071220437</v>
       </c>
       <c r="N4" t="n">
         <v>1303.893008842036</v>
@@ -4507,31 +4507,31 @@
         <v>1830.640801863762</v>
       </c>
       <c r="Q4" t="n">
-        <v>1906.594412149535</v>
+        <v>1906.594412149534</v>
       </c>
       <c r="R4" t="n">
-        <v>1906.594412149535</v>
+        <v>1815.856307632729</v>
       </c>
       <c r="S4" t="n">
-        <v>1906.594412149535</v>
+        <v>1623.818632148416</v>
       </c>
       <c r="T4" t="n">
-        <v>1833.647266445567</v>
+        <v>1401.965766370401</v>
       </c>
       <c r="U4" t="n">
-        <v>1544.543298502944</v>
+        <v>1112.861798427778</v>
       </c>
       <c r="V4" t="n">
-        <v>1544.543298502944</v>
+        <v>858.1773102218916</v>
       </c>
       <c r="W4" t="n">
-        <v>1255.126128465984</v>
+        <v>858.1773102218916</v>
       </c>
       <c r="X4" t="n">
-        <v>1027.136577567966</v>
+        <v>630.1877593238743</v>
       </c>
       <c r="Y4" t="n">
-        <v>1027.136577567966</v>
+        <v>409.3951801803441</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1480.516858765518</v>
+        <v>2185.045504370169</v>
       </c>
       <c r="C5" t="n">
-        <v>1111.554341825106</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D5" t="n">
-        <v>753.2886432183557</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E5" t="n">
-        <v>753.2886432183557</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4565,16 +4565,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4601,16 +4601,16 @@
         <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="W5" t="n">
-        <v>2630.721789066531</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="X5" t="n">
-        <v>2257.256030805451</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="Y5" t="n">
-        <v>1867.11669882964</v>
+        <v>2571.645344434291</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>625.8811108217975</v>
+        <v>526.6580321322147</v>
       </c>
       <c r="C7" t="n">
-        <v>456.9449278938906</v>
+        <v>357.7218492043078</v>
       </c>
       <c r="D7" t="n">
-        <v>456.9449278938906</v>
+        <v>357.7218492043078</v>
       </c>
       <c r="E7" t="n">
-        <v>456.9449278938906</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
         <v>310.0549803959803</v>
@@ -4747,28 +4747,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1735.608663915319</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="V7" t="n">
-        <v>1424.011591242373</v>
+        <v>1446.505797040963</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.594421205412</v>
+        <v>1157.088627004002</v>
       </c>
       <c r="X7" t="n">
-        <v>1028.322154795567</v>
+        <v>929.0990761059845</v>
       </c>
       <c r="Y7" t="n">
-        <v>807.5295756520372</v>
+        <v>708.3064969624544</v>
       </c>
     </row>
     <row r="8">
@@ -4778,19 +4778,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1941.127034633561</v>
+        <v>2345.167438673965</v>
       </c>
       <c r="C8" t="n">
-        <v>1572.164517693149</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1213.898819086399</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>828.1105664881545</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>417.1246616985469</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
         <v>406.0926155839475</v>
@@ -4802,19 +4802,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
@@ -4829,25 +4829,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="W8" t="n">
-        <v>2327.726874697683</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="X8" t="n">
-        <v>2327.726874697683</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="Y8" t="n">
-        <v>2327.726874697683</v>
+        <v>2731.767278738087</v>
       </c>
     </row>
     <row r="9">
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>825.3518203322459</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
         <v>66.51211643218342</v>
@@ -4987,25 +4987,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="U10" t="n">
-        <v>1645.778206672847</v>
+        <v>1794.613518694628</v>
       </c>
       <c r="V10" t="n">
-        <v>1391.09371846696</v>
+        <v>1539.929030488741</v>
       </c>
       <c r="W10" t="n">
-        <v>1101.676548429999</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X10" t="n">
-        <v>873.6869975319821</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>825.3518203322459</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5027,31 +5027,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5066,10 +5066,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5112,28 +5112,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O12" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>931.4710609784063</v>
+        <v>580.899304487669</v>
       </c>
       <c r="C13" t="n">
-        <v>762.5348780504994</v>
+        <v>580.899304487669</v>
       </c>
       <c r="D13" t="n">
-        <v>612.4182386381636</v>
+        <v>580.899304487669</v>
       </c>
       <c r="E13" t="n">
-        <v>464.5051450557705</v>
+        <v>432.9862109052759</v>
       </c>
       <c r="F13" t="n">
-        <v>317.6151975578602</v>
+        <v>286.0962634073655</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>286.0962634073655</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>144.3844322495636</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5203,10 +5203,10 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570817</v>
@@ -5215,34 +5215,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831766</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1653.302830625879</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1363.885660588918</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1333.912104952176</v>
+        <v>983.3403484614389</v>
       </c>
       <c r="Y13" t="n">
-        <v>1113.119525808646</v>
+        <v>762.5477693179088</v>
       </c>
     </row>
     <row r="14">
@@ -5264,34 +5264,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5303,13 +5303,13 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
         <v>3820.749612123002</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N15" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>559.7594328861248</v>
+        <v>719.5738700011939</v>
       </c>
       <c r="C16" t="n">
-        <v>390.823249958218</v>
+        <v>550.637687073287</v>
       </c>
       <c r="D16" t="n">
-        <v>240.7066105458822</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458822</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797187</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038319</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179772</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910807</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570815</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.0893932798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853358</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580258</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2402.78281474869</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2183.181349771631</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1894.106123115828</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1639.421634909942</v>
       </c>
       <c r="W16" t="n">
-        <v>1190.190027757912</v>
+        <v>1350.004464872981</v>
       </c>
       <c r="X16" t="n">
-        <v>962.2004768598948</v>
+        <v>1122.014913974964</v>
       </c>
       <c r="Y16" t="n">
-        <v>741.4078977163646</v>
+        <v>901.2223348314336</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616861</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5586,34 +5586,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>429.5088224239596</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>924.8344286397182</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1522.21291626627</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1522.21291626627</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>2074.122646505557</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2497.745796000625</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121647</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797731</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570816</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2084.430526663134</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1795.355300007332</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1540.670811801445</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1251.253641764485</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138414</v>
+        <v>1023.264090866467</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>802.4715117229372</v>
       </c>
     </row>
     <row r="20">
@@ -5744,43 +5744,43 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R20" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U20" t="n">
         <v>4151.812499466573</v>
@@ -5823,10 +5823,10 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
         <v>245.2306927803937</v>
@@ -5884,28 +5884,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>658.9255961109956</v>
+        <v>707.6725264685176</v>
       </c>
       <c r="C22" t="n">
-        <v>489.9894131830887</v>
+        <v>538.7363435406107</v>
       </c>
       <c r="D22" t="n">
-        <v>489.9894131830887</v>
+        <v>388.6197041282751</v>
       </c>
       <c r="E22" t="n">
-        <v>489.9894131830887</v>
+        <v>240.7066105458821</v>
       </c>
       <c r="F22" t="n">
-        <v>343.0994656851783</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5914,7 +5914,7 @@
         <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1882.204779583152</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1627.520291377265</v>
       </c>
       <c r="W22" t="n">
-        <v>1289.356190982782</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X22" t="n">
-        <v>1061.366640084765</v>
+        <v>1110.113570442287</v>
       </c>
       <c r="Y22" t="n">
-        <v>840.5740609412353</v>
+        <v>889.3209912987573</v>
       </c>
     </row>
     <row r="23">
@@ -5969,13 +5969,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -5987,19 +5987,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797189</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6178,19 +6178,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6221,13 +6221,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6239,7 +6239,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6300,25 +6300,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.311647517212</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2252.221377756499</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876695</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>411.9631215597626</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>261.8464821474269</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>261.8464821474269</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>261.8464821474269</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>94.65038286230678</v>
+        <v>177.7213185270442</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797189</v>
@@ -6385,49 +6385,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359457</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614394</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179092</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6546,22 +6546,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>579.1554649516142</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,28 +6595,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>580.899304487669</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.917417812164</v>
       </c>
       <c r="E31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.917417812164</v>
       </c>
       <c r="F31" t="n">
-        <v>411.9631215597622</v>
+        <v>344.917417812164</v>
       </c>
       <c r="G31" t="n">
-        <v>244.767022274642</v>
+        <v>177.7213185270439</v>
       </c>
       <c r="H31" t="n">
-        <v>103.0551911168402</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>983.3403484614389</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y31" t="n">
-        <v>762.5477693179088</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="32">
@@ -6674,10 +6674,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004712</v>
@@ -6686,7 +6686,7 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6731,19 +6731,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319333</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656827</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345478</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6923,22 +6923,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -7020,22 +7020,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319327</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.551295565682</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580116</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>198.0944824954149</v>
+        <v>198.0944824954154</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380733</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7108,7 +7108,7 @@
         <v>1785.769117656414</v>
       </c>
       <c r="O37" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P37" t="n">
         <v>2496.057455973196</v>
@@ -7117,16 +7117,16 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V37" t="n">
         <v>1748.685508594055</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7154,37 +7154,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319317</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656811</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7330,7 +7330,7 @@
         <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
         <v>483.8255460380728</v>
@@ -7357,25 +7357,25 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T40" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W40" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X40" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y40" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="41">
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7485,31 +7485,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319322</v>
+        <v>926.957531531932</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656816</v>
+        <v>782.5512955656814</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150021</v>
+        <v>656.9646031150019</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942652</v>
+        <v>533.581456494265</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580112</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345475</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H43" t="n">
-        <v>151.373419438402</v>
+        <v>151.3734194384017</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797189</v>
@@ -7570,10 +7570,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,19 +7591,19 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
       </c>
       <c r="T43" t="n">
-        <v>2243.385329532432</v>
+        <v>2243.385329532431</v>
       </c>
       <c r="U43" t="n">
         <v>1978.840049838285</v>
       </c>
       <c r="V43" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594054</v>
       </c>
       <c r="W43" t="n">
         <v>1483.79828551875</v>
@@ -7612,7 +7612,7 @@
         <v>1280.338681582389</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400516</v>
+        <v>1084.076049400515</v>
       </c>
     </row>
     <row r="44">
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7679,19 +7679,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7731,22 +7731,22 @@
         <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8058,7 +8058,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>27.95355500661935</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -8076,10 +8076,10 @@
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>27.95355500661705</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>1.622913276780167</v>
+        <v>1.622913276780253</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8289,7 +8289,7 @@
         <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>2.025046796916286e-13</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -22544,22 +22544,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>327.251885439535</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>310.4164907947205</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,28 +22702,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>70.10436337973387</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0457926480648</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.9326943004822</v>
       </c>
       <c r="I4" t="n">
-        <v>96.95340549104679</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22750,28 +22750,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>89.83072347163687</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>190.11729872947</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>147.4166628733062</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -23416,10 +23416,10 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>31.2037448089897</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>196.0358353086627</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>22.6367805668694</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>45.44677382459349</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23890,22 +23890,22 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664509</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>39.52450498097946</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24130,22 +24130,22 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,10 +24172,10 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>143.6212754172147</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24376,10 +24376,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>57.22910392194217</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194255</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>139.4693302300323</v>
+        <v>57.22910392194233</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>57.22910392194253</v>
       </c>
       <c r="I31" t="n">
-        <v>72.11969353038592</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -25552,7 +25552,7 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>7.531752999057062e-13</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -26311,25 +26311,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>152326.9268048895</v>
+        <v>152326.9268048896</v>
       </c>
       <c r="C2" t="n">
+        <v>184734.3982194639</v>
+      </c>
+      <c r="D2" t="n">
         <v>184734.3982194638</v>
       </c>
-      <c r="D2" t="n">
-        <v>184734.3982194639</v>
-      </c>
       <c r="E2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="F2" t="n">
+        <v>181607.9849302513</v>
+      </c>
+      <c r="G2" t="n">
         <v>181607.9849302514</v>
       </c>
-      <c r="F2" t="n">
-        <v>181607.9849302514</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>181607.9849302513</v>
-      </c>
-      <c r="H2" t="n">
-        <v>181607.9849302514</v>
       </c>
       <c r="I2" t="n">
         <v>181607.9849302513</v>
@@ -26344,7 +26344,7 @@
         <v>184734.3982194636</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194636</v>
+        <v>184734.3982194637</v>
       </c>
       <c r="N2" t="n">
         <v>184734.3982194636</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1313514.533081208</v>
+        <v>1313514.533081207</v>
       </c>
       <c r="C3" t="n">
-        <v>14479.05232074488</v>
+        <v>14479.05232074548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073549</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>1.767800767993322e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>213977.8894125533</v>
+        <v>213977.8894125532</v>
       </c>
       <c r="K3" t="n">
-        <v>3495.241841022463</v>
+        <v>3495.241841022609</v>
       </c>
       <c r="L3" t="n">
         <v>19427.71799363178</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551175</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,25 +26415,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11698.02956068573</v>
+        <v>11698.02956068577</v>
       </c>
       <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314482</v>
+        <v>90354.0670231448</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179356</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179352</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179353</v>
+        <v>11167.03225179357</v>
       </c>
       <c r="I4" t="n">
         <v>11167.03225179354</v>
@@ -26445,19 +26445,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
+        <v>19157.89151488701</v>
+      </c>
+      <c r="M4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="N4" t="n">
+        <v>19157.89151488697</v>
+      </c>
+      <c r="O4" t="n">
+        <v>19157.89151488698</v>
+      </c>
+      <c r="P4" t="n">
         <v>19157.89151488699</v>
-      </c>
-      <c r="M4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="N4" t="n">
-        <v>19157.891514887</v>
-      </c>
-      <c r="O4" t="n">
-        <v>19157.89151488699</v>
-      </c>
-      <c r="P4" t="n">
-        <v>19157.89151488698</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26467,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>106866.6399031117</v>
+        <v>106866.6399031116</v>
       </c>
       <c r="C5" t="n">
         <v>107933.9405613933</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1279752.275740116</v>
+        <v>-1280112.358755833</v>
       </c>
       <c r="C6" t="n">
-        <v>-28032.66168581914</v>
+        <v>-28032.66168581971</v>
       </c>
       <c r="D6" t="n">
-        <v>-13553.60936507426</v>
+        <v>-13553.60936507431</v>
       </c>
       <c r="E6" t="n">
-        <v>-256094.0389528043</v>
+        <v>-256128.7768782399</v>
       </c>
       <c r="F6" t="n">
-        <v>69318.42285455075</v>
+        <v>69283.68492911498</v>
       </c>
       <c r="G6" t="n">
-        <v>69318.42285455066</v>
+        <v>69283.6849291149</v>
       </c>
       <c r="H6" t="n">
-        <v>69318.42285455075</v>
+        <v>69283.68492911498</v>
       </c>
       <c r="I6" t="n">
-        <v>69318.42285455069</v>
+        <v>69283.684929115</v>
       </c>
       <c r="J6" t="n">
-        <v>-144659.4665580025</v>
+        <v>-144694.2044834382</v>
       </c>
       <c r="K6" t="n">
-        <v>65823.18101352833</v>
+        <v>65788.44308809249</v>
       </c>
       <c r="L6" t="n">
-        <v>42984.67285702945</v>
+        <v>42984.67285702942</v>
       </c>
       <c r="M6" t="n">
-        <v>-22642.63708485058</v>
+        <v>-22642.63708485046</v>
       </c>
       <c r="N6" t="n">
-        <v>62412.39085066126</v>
+        <v>62412.39085066124</v>
       </c>
       <c r="O6" t="n">
-        <v>62412.39085066126</v>
+        <v>62412.39085066124</v>
       </c>
       <c r="P6" t="n">
-        <v>62412.39085066121</v>
+        <v>62412.39085066124</v>
       </c>
     </row>
   </sheetData>
@@ -26719,13 +26719,13 @@
         <v>24.28464749203972</v>
       </c>
       <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145301</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26960,19 +26960,19 @@
         <v>1078.694448491203</v>
       </c>
       <c r="C3" t="n">
-        <v>11.08225210209503</v>
+        <v>11.08225210209548</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483752</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>817.8207389145301</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="C4" t="n">
-        <v>13.58071648776252</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145301</v>
+        <v>817.8207389145298</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776252</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>817.8207389145301</v>
+        <v>817.8207389145297</v>
       </c>
       <c r="K4" t="n">
-        <v>13.58071648776252</v>
+        <v>13.58071648776308</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973554</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,19 +27616,19 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>158.5207149607583</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>74.07370403710075</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27673,13 +27673,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27780,10 +27780,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>99.24376252632497</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -27819,16 +27819,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,7 +27837,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>120.5001116432905</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27865,7 +27865,7 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>144.0062118436974</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>111.4435131414766</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28059,13 +28059,13 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>243.7897717757339</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>170.7328279243559</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28144,7 +28144,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>9.848122317634988e-13</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>9.426059932593489e-13</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28509,7 +28509,7 @@
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.304053244491418e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -28573,13 +28573,13 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>9.285372470912988e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28749,7 +28749,7 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>-7.965435133550907e-13</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.13686837721616e-12</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29041,16 +29041,16 @@
         <v>0</v>
       </c>
       <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
         <v>5.115907697472721e-13</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
-        <v>0</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
       </c>
       <c r="H23" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30238,7 +30238,7 @@
         <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203973</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.336460094436995</v>
+        <v>4.336460094436993</v>
       </c>
       <c r="H2" t="n">
-        <v>44.41077194215288</v>
+        <v>44.41077194215286</v>
       </c>
       <c r="I2" t="n">
-        <v>167.1813777907824</v>
+        <v>167.1813777907823</v>
       </c>
       <c r="J2" t="n">
-        <v>368.0516299402222</v>
+        <v>368.0516299402221</v>
       </c>
       <c r="K2" t="n">
-        <v>551.6139857377403</v>
+        <v>551.6139857377401</v>
       </c>
       <c r="L2" t="n">
-        <v>684.3259263528666</v>
+        <v>684.3259263528663</v>
       </c>
       <c r="M2" t="n">
-        <v>761.4444485573105</v>
+        <v>761.4444485573102</v>
       </c>
       <c r="N2" t="n">
-        <v>773.7654158006297</v>
+        <v>773.7654158006294</v>
       </c>
       <c r="O2" t="n">
-        <v>730.6447407365717</v>
+        <v>730.6447407365715</v>
       </c>
       <c r="P2" t="n">
-        <v>623.5883821551583</v>
+        <v>623.5883821551581</v>
       </c>
       <c r="Q2" t="n">
-        <v>468.2889050231333</v>
+        <v>468.2889050231332</v>
       </c>
       <c r="R2" t="n">
-        <v>272.4001614071781</v>
+        <v>272.400161407178</v>
       </c>
       <c r="S2" t="n">
-        <v>98.81708440198312</v>
+        <v>98.81708440198308</v>
       </c>
       <c r="T2" t="n">
-        <v>18.98285406339796</v>
+        <v>18.98285406339795</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3469168075549595</v>
+        <v>0.3469168075549593</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.320210700528249</v>
+        <v>2.320210700528248</v>
       </c>
       <c r="H3" t="n">
-        <v>22.40835071299651</v>
+        <v>22.4083507129965</v>
       </c>
       <c r="I3" t="n">
-        <v>79.88444736467875</v>
+        <v>79.88444736467871</v>
       </c>
       <c r="J3" t="n">
         <v>219.2090293863114</v>
       </c>
       <c r="K3" t="n">
-        <v>374.6631463217041</v>
+        <v>374.6631463217039</v>
       </c>
       <c r="L3" t="n">
-        <v>503.7808365335569</v>
+        <v>503.7808365335566</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8884744277057</v>
+        <v>587.8884744277054</v>
       </c>
       <c r="N3" t="n">
-        <v>603.4481330290554</v>
+        <v>603.448133029055</v>
       </c>
       <c r="O3" t="n">
-        <v>552.0371485594557</v>
+        <v>552.0371485594554</v>
       </c>
       <c r="P3" t="n">
-        <v>443.0584801736794</v>
+        <v>443.0584801736792</v>
       </c>
       <c r="Q3" t="n">
-        <v>296.1728606498866</v>
+        <v>296.1728606498865</v>
       </c>
       <c r="R3" t="n">
-        <v>144.0565906871838</v>
+        <v>144.0565906871837</v>
       </c>
       <c r="S3" t="n">
-        <v>43.09689612604003</v>
+        <v>43.09689612604001</v>
       </c>
       <c r="T3" t="n">
-        <v>9.352077341164296</v>
+        <v>9.352077341164293</v>
       </c>
       <c r="U3" t="n">
-        <v>0.152645440824227</v>
+        <v>0.1526454408242269</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,46 +31197,46 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.945186710393973</v>
+        <v>1.945186710393972</v>
       </c>
       <c r="H4" t="n">
-        <v>17.29447820695734</v>
+        <v>17.29447820695733</v>
       </c>
       <c r="I4" t="n">
-        <v>58.4970694362115</v>
+        <v>58.49706943621147</v>
       </c>
       <c r="J4" t="n">
-        <v>137.5247004248539</v>
+        <v>137.5247004248538</v>
       </c>
       <c r="K4" t="n">
-        <v>225.9953287166815</v>
+        <v>225.9953287166814</v>
       </c>
       <c r="L4" t="n">
-        <v>289.1962132889367</v>
+        <v>289.1962132889366</v>
       </c>
       <c r="M4" t="n">
-        <v>304.9168586120297</v>
+        <v>304.9168586120296</v>
       </c>
       <c r="N4" t="n">
-        <v>297.6666172369252</v>
+        <v>297.666617236925</v>
       </c>
       <c r="O4" t="n">
-        <v>274.9432997564136</v>
+        <v>274.9432997564135</v>
       </c>
       <c r="P4" t="n">
-        <v>235.2614908643764</v>
+        <v>235.2614908643763</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.8828617221717</v>
+        <v>162.8828617221716</v>
       </c>
       <c r="R4" t="n">
-        <v>87.46266790553261</v>
+        <v>87.46266790553258</v>
       </c>
       <c r="S4" t="n">
-        <v>33.89929930750223</v>
+        <v>33.89929930750221</v>
       </c>
       <c r="T4" t="n">
-        <v>8.311252308046972</v>
+        <v>8.311252308046969</v>
       </c>
       <c r="U4" t="n">
         <v>0.1061010932942168</v>
@@ -31750,37 +31750,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31789,10 +31789,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,28 +31835,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P12" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31865,10 +31865,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31914,28 +31914,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,37 +31987,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32026,10 +32026,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,25 +32072,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32102,10 +32102,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32151,28 +32151,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32312,7 +32312,7 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
@@ -32324,19 +32324,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>158.8462560123214</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32941,7 +32941,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -32962,7 +32962,7 @@
         <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.820449923651</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
         <v>593.8732233669223</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33032,16 +33032,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>437.8531046913764</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33266,25 +33266,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>244.0266243181833</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33421,7 +33421,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
         <v>867.846407116256</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33661,7 +33661,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M35" t="n">
         <v>965.6463440175675</v>
@@ -33740,25 +33740,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33889,7 +33889,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33968,16 +33968,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
@@ -33986,16 +33986,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34150,7 +34150,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
         <v>345.4516222043725</v>
@@ -34205,16 +34205,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
         <v>745.5466476862121</v>
@@ -34223,16 +34223,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>688.8020111197787</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34451,25 +34451,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>240.4469701760392</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>187.0057254135359</v>
+        <v>187.0057254135358</v>
       </c>
       <c r="K2" t="n">
-        <v>331.5241346927598</v>
+        <v>331.5241346927596</v>
       </c>
       <c r="L2" t="n">
-        <v>448.5595113828794</v>
+        <v>448.5595113828791</v>
       </c>
       <c r="M2" t="n">
-        <v>531.0982153300378</v>
+        <v>531.0982153300375</v>
       </c>
       <c r="N2" t="n">
-        <v>544.3523522040389</v>
+        <v>544.3523522040384</v>
       </c>
       <c r="O2" t="n">
-        <v>500.546529314885</v>
+        <v>500.5465293148848</v>
       </c>
       <c r="P2" t="n">
-        <v>392.3553863998888</v>
+        <v>392.3553863998886</v>
       </c>
       <c r="Q2" t="n">
-        <v>245.9832151486839</v>
+        <v>245.9832151486837</v>
       </c>
       <c r="R2" t="n">
-        <v>56.81462359304601</v>
+        <v>56.81462359304589</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>92.37140271964475</v>
+        <v>92.37140271964466</v>
       </c>
       <c r="K3" t="n">
-        <v>236.8217073473451</v>
+        <v>264.7752623539643</v>
       </c>
       <c r="L3" t="n">
-        <v>365.2264567536827</v>
+        <v>365.2264567536824</v>
       </c>
       <c r="M3" t="n">
-        <v>445.7544405056873</v>
+        <v>445.7544405056871</v>
       </c>
       <c r="N3" t="n">
-        <v>472.1064209457221</v>
+        <v>472.1064209457218</v>
       </c>
       <c r="O3" t="n">
-        <v>409.4409041150112</v>
+        <v>409.440904115011</v>
       </c>
       <c r="P3" t="n">
-        <v>309.0840727593491</v>
+        <v>309.0840727593489</v>
       </c>
       <c r="Q3" t="n">
-        <v>184.1446415704822</v>
+        <v>156.191086563865</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>44.1655203081811</v>
+        <v>44.16552030818104</v>
       </c>
       <c r="K4" t="n">
-        <v>203.7258368907987</v>
+        <v>203.7258368907986</v>
       </c>
       <c r="L4" t="n">
-        <v>316.7862385492529</v>
+        <v>316.7862385492527</v>
       </c>
       <c r="M4" t="n">
-        <v>344.5007355738703</v>
+        <v>344.5007355738702</v>
       </c>
       <c r="N4" t="n">
-        <v>341.7987896161537</v>
+        <v>341.7987896161536</v>
       </c>
       <c r="O4" t="n">
-        <v>299.5284276704533</v>
+        <v>299.5284276704532</v>
       </c>
       <c r="P4" t="n">
-        <v>232.5400501292699</v>
+        <v>232.5400501292698</v>
       </c>
       <c r="Q4" t="n">
-        <v>76.72081847047731</v>
+        <v>76.72081847047723</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35483,28 +35483,28 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P12" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35574,19 +35574,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35720,25 +35720,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096326</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
         <v>337.2977496678996</v>
@@ -35972,19 +35972,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>18.86448192629984</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36045,7 +36045,7 @@
         <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191301</v>
       </c>
       <c r="M19" t="n">
         <v>426.2724270010451</v>
@@ -36142,7 +36142,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36589,7 +36589,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36610,7 +36610,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
         <v>371.5675334924728</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36680,16 +36680,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>303.8786972770462</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36914,25 +36914,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>101.892590396165</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
         <v>632.0799921462688</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37309,7 +37309,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M35" t="n">
         <v>735.3001107902948</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37537,7 +37537,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37616,16 +37616,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
@@ -37634,16 +37634,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37798,7 +37798,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
         <v>129.8660843902404</v>
@@ -37853,16 +37853,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
@@ -37871,16 +37871,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>546.2057666753343</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37941,7 +37941,7 @@
         <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38099,25 +38099,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>101.892590396165</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
